--- a/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 8,66</t>
+          <t>-10,16; 17,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 14,72</t>
+          <t>-4,14; 7,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,87</t>
+          <t>-0,96; 6,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 38,3</t>
+          <t>-30,42; 100,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 18,51</t>
+          <t>-4,32; 8,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,84</t>
+          <t>-0,88; 7,12</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,59</t>
+          <t>-9,12; 8,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 7,99</t>
+          <t>0,29; 14,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,67</t>
+          <t>-0,6; 7,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 16,48</t>
+          <t>-20,53; 23,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,26</t>
+          <t>0,37; 17,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,28</t>
+          <t>-0,63; 8,21</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 15,57</t>
+          <t>-0,03; 19,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 8,75</t>
+          <t>0,71; 13,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,83</t>
+          <t>-1,25; 6,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 36,77</t>
+          <t>0,28; 44,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 10,45</t>
+          <t>0,83; 16,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,7</t>
+          <t>-1,27; 7,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 6,15</t>
+          <t>-5,45; 4,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,19</t>
+          <t>-3,54; 5,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,27</t>
+          <t>0,1; 10,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 17,4</t>
+          <t>-13,73; 13,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,27</t>
+          <t>-3,81; 6,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,76</t>
+          <t>0,13; 11,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 6,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 6,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 5,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 17,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 7,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 5,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,02%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.58516595654978</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.750918316342708</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.882765488307204</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1301792083752608</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.007985557478562525</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.03069124425699487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 17,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 7,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 6,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-30,42; 100,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 8,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 7,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.15585774370454</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.296929697030036</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7417158736770169</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.304186304374806</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.05680193685510008</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.007896582235896146</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.93004289083945</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.639729601402748</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.854219894306053</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.00818029913443</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.06166059954130965</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.07605874917185898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; 8,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 14,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 7,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; 23,6</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 17,71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 8,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5580782690494224</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.714613864168349</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.914451449763478</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.01418414683502824</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.0647124120497512</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.03151925199367039</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,46</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.116707157315894</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.767188203695766</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6222287200567931</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2052583993688396</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.008754595873934515</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.006548744626952598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 19,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 13,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 6,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 44,77</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 16,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 7,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.391313611370084</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.34065515521232</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.25660427679558</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.235956687685688</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1646979800337078</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.08133962449786679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,49%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.46162853108945</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.102501066560839</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.788532664684306</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2111226188876529</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.05694883169249385</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.01884642666750714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,45; 4,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 5,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 10,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 13,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 6,28</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 11,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.0299181668374702</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5046092228517657</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.38562046210091</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.002841798376248174</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.005534230822740091</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.01441074287180429</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.70836039491818</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.68737894836203</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.503643105867956</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4476660645455973</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1541524550998996</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.07172438510069609</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 6,17</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 6,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 5,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 17,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 7,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 5,59</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.584245357053512</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.698468831925817</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.588600554297216</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.111723625611272</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.05237497593161706</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.02767045701902544</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.116696987579447</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.676845606792029</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3937263201520823</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02717969829515693</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01834887304948441</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.004265979562503487</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.62367344832616</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.916350435380961</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.299037524715108</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2857642520346206</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1044261576927296</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.05827522277469617</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
